--- a/biology/Biologie cellulaire et moléculaire/Charles_Ernest_Overton/Charles_Ernest_Overton.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Charles_Ernest_Overton/Charles_Ernest_Overton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Ernest Overton est un biologiste britannique né en 1865 et mort en 1933[1].
-Il  a découvert des concepts fondamentaux concernant la structure et le fonctionnement des cellules des êtres vivants comme la perméabilité de la membrane cellulaire aux lipides[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Ernest Overton est un biologiste britannique né en 1865 et mort en 1933.
+Il  a découvert des concepts fondamentaux concernant la structure et le fonctionnement des cellules des êtres vivants comme la perméabilité de la membrane cellulaire aux lipides.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Découvertes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il découvre, avec Hans Horst Meyer, la loi sur l'efficacité des anesthésiants en solution qui porte son nom (Loi de Meyer-Overton).
 </t>
@@ -543,9 +557,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recruté à l'Université de Lund en Suède en tant que professeur, il y rencontre et épouse Louise Petrén-Overton, la première femme en Suède à obtenir un doctorat en mathématiques. Le couple aura quatre enfants[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recruté à l'Université de Lund en Suède en tant que professeur, il y rencontre et épouse Louise Petrén-Overton, la première femme en Suède à obtenir un doctorat en mathématiques. Le couple aura quatre enfants.
 </t>
         </is>
       </c>
